--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8682D55D-C7F3-4007-9E9F-B392254304DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3A8BC-0DDB-4E25-AA0B-C65862090B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="6" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -318,7 +318,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -752,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +781,7 @@
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -820,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -932,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1117,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1142,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="str">
@@ -1155,7 +1154,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="6" t="str">
@@ -1184,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82CC5C-95E7-403E-9BA4-87B51BF847CF}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,21 +1213,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="22" t="str">
         <f>Producto!E2</f>
         <v>Loción Corporal Hidratante-Cuidado corporal</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>12000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>45369</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="25" t="str">
         <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
         <v>Loción Corporal Hidratante-Cuidado corporal-12000-45369</v>
       </c>
@@ -1237,17 +1236,17 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="22" t="str">
         <f>Producto!E3</f>
         <v>Crema Facial Anti-edad-Cuidado facial</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>20000</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>45346</v>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="25" t="str">
         <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
         <v>Crema Facial Anti-edad-Cuidado facial-20000-45346</v>
       </c>
@@ -1256,17 +1255,17 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="22" t="str">
         <f>Producto!E4</f>
         <v>Crema para masajes-Masajes</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>14500</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>45262</v>
       </c>
-      <c r="E4" s="26" t="str">
+      <c r="E4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Crema para masajes-Masajes-14500-45262</v>
       </c>

--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3A8BC-0DDB-4E25-AA0B-C65862090B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2BB5D0-9300-4130-B07D-56ED4C3D0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="6" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>objeto de dominio gestiona el inventario de productos disponibles en el spa.</t>
+  </si>
+  <si>
+    <t>Cantidad Productos</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -322,9 +325,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,22 +1181,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82CC5C-95E7-403E-9BA4-87B51BF847CF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1204,77 +1205,85 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="1" t="str">
         <f>Producto!E2</f>
         <v>Loción Corporal Hidratante-Cuidado corporal</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22">
         <v>12000</v>
       </c>
-      <c r="D2" s="24">
+      <c r="E2" s="23">
         <v>45369</v>
       </c>
-      <c r="E2" s="25" t="str">
-        <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
+      <c r="F2" s="24" t="str">
+        <f>B2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
         <v>Loción Corporal Hidratante-Cuidado corporal-12000-45369</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="1" t="str">
         <f>Producto!E3</f>
         <v>Crema Facial Anti-edad-Cuidado facial</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="22">
         <v>20000</v>
       </c>
-      <c r="D3" s="24">
+      <c r="E3" s="23">
         <v>45346</v>
       </c>
-      <c r="E3" s="25" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+      <c r="F3" s="24" t="str">
+        <f>B3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
         <v>Crema Facial Anti-edad-Cuidado facial-20000-45346</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="1" t="str">
         <f>Producto!E4</f>
         <v>Crema para masajes-Masajes</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="22">
         <v>14500</v>
       </c>
-      <c r="D4" s="24">
+      <c r="E4" s="23">
         <v>45262</v>
       </c>
-      <c r="E4" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" s="24" t="str">
+        <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
         <v>Crema para masajes-Masajes-14500-45262</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" location="Producto!E2" display="Producto!E2" xr:uid="{D2A08A65-41A4-4DD9-B908-AC05CF5B3747}"/>
-    <hyperlink ref="B3:B4" location="Producto!E2" display="Producto!E2" xr:uid="{ECA36DD5-E040-46C2-95F8-2F84CDA9089D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2BB5D0-9300-4130-B07D-56ED4C3D0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396D9F8-722A-481B-9D2A-E5F5553C2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Fabricante" sheetId="3" r:id="rId3"/>
-    <sheet name="Producto" sheetId="5" r:id="rId4"/>
-    <sheet name="ProductoporFabricante" sheetId="6" r:id="rId5"/>
-    <sheet name="Categoria" sheetId="7" r:id="rId6"/>
-    <sheet name="ProductoInventario" sheetId="8" r:id="rId7"/>
+    <sheet name="ProductoporFabricante" sheetId="6" r:id="rId4"/>
+    <sheet name="Categoria" sheetId="7" r:id="rId5"/>
+    <sheet name="Producto" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -76,9 +75,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos de tecnologia</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -163,29 +159,20 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante</t>
-  </si>
-  <si>
-    <t>ProductoporInventario</t>
-  </si>
-  <si>
-    <t>FechaCompra</t>
-  </si>
-  <si>
-    <t>PrecioCompraU</t>
-  </si>
-  <si>
-    <t>objeto de dominio gestiona el inventario de productos disponibles en el spa.</t>
-  </si>
-  <si>
-    <t>Cantidad Productos</t>
+    <t>Fabricantes</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos que utilizan los Spa.</t>
+  </si>
+  <si>
+    <t>objeto de dominio que contiene la informacion de la categoria a la que pertenecen los productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +212,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -325,14 +319,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -359,20 +347,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>648854</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9921</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02900BEC-7BBA-701E-D590-02438870758C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D5CBBE-6D28-1F3A-91E7-2F30A5633728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -388,8 +376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28575"/>
-          <a:ext cx="8268854" cy="2838846"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6182588" cy="2476846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,83 +762,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A5" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
     <hyperlink ref="A4" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
     <hyperlink ref="A2" location="ProductoporFabricante!A1" display="Producto Por Fabricante" xr:uid="{3005975D-F15C-49D9-9787-D147A2546BE6}"/>
     <hyperlink ref="A3" location="Categoria!A1" display="categoria" xr:uid="{21B60CB4-94E8-44FA-9E5D-A8E3C8478B12}"/>
@@ -865,7 +839,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,13 +851,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
@@ -903,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
@@ -915,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -928,109 +902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14" t="str">
-        <f>ProductoporFabricante!D2</f>
-        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>Categoria!C2</f>
-        <v>Cuidado corporal</v>
-      </c>
-      <c r="E2" s="16" t="str">
-        <f>B2&amp;"-"&amp;D2</f>
-        <v>Loción Corporal Hidratante-Cuidado corporal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="str">
-        <f>ProductoporFabricante!D3</f>
-        <v>Dermalogica Daily Microfoliant</v>
-      </c>
-      <c r="D3" s="14" t="str">
-        <f>Categoria!C3</f>
-        <v>Cuidado facial</v>
-      </c>
-      <c r="E3" s="16" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;D3</f>
-        <v>Crema Facial Anti-edad-Cuidado facial</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="14" t="str">
-        <f>ProductoporFabricante!D4</f>
-        <v>Lubriderm Daily Moisture Lotion</v>
-      </c>
-      <c r="D4" s="14" t="str">
-        <f>Categoria!C4</f>
-        <v>Masajes</v>
-      </c>
-      <c r="E4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Crema para masajes-Masajes</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C0F06C-9ADE-4A7C-AC8D-92B01D231BF9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,16 +919,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1060,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>Fabricante!C2</f>
@@ -1076,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>Fabricante!C3</f>
@@ -1092,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>Fabricante!C4</f>
@@ -1112,7 +988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4426172C-0972-46E3-82F0-32B5994B8FFE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1129,13 +1005,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
@@ -1155,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
@@ -1167,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1179,108 +1055,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82CC5C-95E7-403E-9BA4-87B51BF847CF}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>Producto!E2</f>
+      <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>ProductoporFabricante!D2</f>
+        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>Categoria!C2</f>
+        <v>Cuidado corporal</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>B2&amp;"-"&amp;D2</f>
         <v>Loción Corporal Hidratante-Cuidado corporal</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="22">
-        <v>12000</v>
-      </c>
-      <c r="E2" s="23">
-        <v>45369</v>
-      </c>
-      <c r="F2" s="24" t="str">
-        <f>B2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
-        <v>Loción Corporal Hidratante-Cuidado corporal-12000-45369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>Producto!E3</f>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>ProductoporFabricante!D3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>Categoria!C3</f>
+        <v>Cuidado facial</v>
+      </c>
+      <c r="E3" s="16" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;D3</f>
         <v>Crema Facial Anti-edad-Cuidado facial</v>
       </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="22">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="23">
-        <v>45346</v>
-      </c>
-      <c r="F3" s="24" t="str">
-        <f>B3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
-        <v>Crema Facial Anti-edad-Cuidado facial-20000-45346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f>Producto!E4</f>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>ProductoporFabricante!D4</f>
+        <v>Lubriderm Daily Moisture Lotion</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>Categoria!C4</f>
+        <v>Masajes</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Crema para masajes-Masajes</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="22">
-        <v>14500</v>
-      </c>
-      <c r="E4" s="23">
-        <v>45262</v>
-      </c>
-      <c r="F4" s="24" t="str">
-        <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
-        <v>Crema para masajes-Masajes-14500-45262</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396D9F8-722A-481B-9D2A-E5F5553C2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6396D9F8-722A-481B-9D2A-E5F5553C2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DAFDAB1-CBE3-4990-9B8C-45F3FFFE1006}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView minimized="1" xWindow="25965" yWindow="-780" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Fabricante" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductoporFabricante" sheetId="6" r:id="rId4"/>
-    <sheet name="Categoria" sheetId="7" r:id="rId5"/>
-    <sheet name="Producto" sheetId="5" r:id="rId6"/>
+    <sheet name="Categoria" sheetId="7" r:id="rId4"/>
+    <sheet name="Producto" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -102,21 +101,6 @@
     <t>Lubridem</t>
   </si>
   <si>
-    <t>Producto Por Fabricante</t>
-  </si>
-  <si>
-    <t>NombreProducto</t>
-  </si>
-  <si>
-    <t>L'Oréal Paris Revitalift Crema de Día Anti-edad</t>
-  </si>
-  <si>
-    <t>Dermalogica Daily Microfoliant</t>
-  </si>
-  <si>
-    <t>Lubriderm Daily Moisture Lotion</t>
-  </si>
-  <si>
     <t>Combinacion Unica</t>
   </si>
   <si>
@@ -135,16 +119,10 @@
     <t>Loción Corporal Hidratante</t>
   </si>
   <si>
-    <t>ProductoporFabricante</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
     <t>Crema para masajes</t>
-  </si>
-  <si>
-    <t>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante en particular</t>
   </si>
   <si>
     <t>Productos</t>
@@ -199,12 +177,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,8 +195,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,10 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,18 +267,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,16 +288,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -351,16 +326,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>86588</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>346</xdr:rowOff>
+      <xdr:colOff>448588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D5CBBE-6D28-1F3A-91E7-2F30A5633728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C69875-C711-4B49-BECC-0F7E705A43E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -377,7 +352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6182588" cy="2476846"/>
+          <a:ext cx="6544588" cy="3686689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -722,14 +697,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
-  <dimension ref="A1"/>
+  <dimension ref="J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -737,10 +716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,72 +741,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>30</v>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
-    <hyperlink ref="A4" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
-    <hyperlink ref="A2" location="ProductoporFabricante!A1" display="Producto Por Fabricante" xr:uid="{3005975D-F15C-49D9-9787-D147A2546BE6}"/>
-    <hyperlink ref="A3" location="Categoria!A1" display="categoria" xr:uid="{21B60CB4-94E8-44FA-9E5D-A8E3C8478B12}"/>
+    <hyperlink ref="A4" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
+    <hyperlink ref="A2" location="Categoria!A1" display="categoria" xr:uid="{21B60CB4-94E8-44FA-9E5D-A8E3C8478B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -839,7 +803,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,13 +814,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -867,7 +831,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="5" t="str">
         <f>B2</f>
         <v>L'Oréal</v>
       </c>
@@ -879,7 +843,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
         <v>Dermalogica</v>
       </c>
@@ -891,7 +855,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lubridem</v>
       </c>
@@ -902,93 +866,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C0F06C-9ADE-4A7C-AC8D-92B01D231BF9}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>Fabricante!C2</f>
-        <v>L'Oréal</v>
-      </c>
-      <c r="D2" s="11" t="str">
-        <f>B2</f>
-        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Fabricante!C3</f>
-        <v>Dermalogica</v>
-      </c>
-      <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>Dermalogica Daily Microfoliant</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>Fabricante!C4</f>
-        <v>Lubridem</v>
-      </c>
-      <c r="D4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>Lubriderm Daily Moisture Lotion</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="Fabricante!C2" display="Fabricante!C2" xr:uid="{1097BE8D-189A-4CB5-A8F1-5FFCAE8F109C}"/>
-    <hyperlink ref="C3:C4" location="Fabricante!C2" display="Fabricante!C2" xr:uid="{7F1C4B82-A937-408B-9B78-A4AA56199E4C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4426172C-0972-46E3-82F0-32B5994B8FFE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1004,48 +881,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="str">
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="str">
         <f>B2</f>
         <v>Cuidado corporal</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="str">
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
         <v>Cuidado facial</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="str">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Masajes</v>
       </c>
@@ -1055,98 +932,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="14" t="str">
-        <f>ProductoporFabricante!D2</f>
-        <v>L'Oréal Paris Revitalift Crema de Día Anti-edad</v>
-      </c>
-      <c r="D2" s="14" t="str">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f>Categoria!C2</f>
         <v>Cuidado corporal</v>
       </c>
-      <c r="E2" s="16" t="str">
+      <c r="D2" s="10" t="str">
+        <f>Fabricante!C2</f>
+        <v>L'Oréal</v>
+      </c>
+      <c r="E2" s="12" t="str">
         <f>B2&amp;"-"&amp;D2</f>
-        <v>Loción Corporal Hidratante-Cuidado corporal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>Loción Corporal Hidratante-L'Oréal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="14" t="str">
-        <f>ProductoporFabricante!D3</f>
-        <v>Dermalogica Daily Microfoliant</v>
-      </c>
-      <c r="D3" s="14" t="str">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="str">
         <f>Categoria!C3</f>
         <v>Cuidado facial</v>
       </c>
-      <c r="E3" s="16" t="str">
+      <c r="D3" s="10" t="str">
+        <f>Fabricante!C3</f>
+        <v>Dermalogica</v>
+      </c>
+      <c r="E3" s="12" t="str">
         <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;D3</f>
-        <v>Crema Facial Anti-edad-Cuidado facial</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+        <v>Crema Facial Anti-edad-Dermalogica</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="14" t="str">
-        <f>ProductoporFabricante!D4</f>
-        <v>Lubriderm Daily Moisture Lotion</v>
-      </c>
-      <c r="D4" s="14" t="str">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="str">
         <f>Categoria!C4</f>
         <v>Masajes</v>
       </c>
-      <c r="E4" s="16" t="str">
+      <c r="D4" s="10" t="str">
+        <f>Fabricante!C4</f>
+        <v>Lubridem</v>
+      </c>
+      <c r="E4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Crema para masajes-Masajes</v>
-      </c>
+        <v>Crema para masajes-Lubridem</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6396D9F8-722A-481B-9D2A-E5F5553C2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DAFDAB1-CBE3-4990-9B8C-45F3FFFE1006}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DADDBD-0F40-464B-8D89-0F72FC522DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25965" yWindow="-780" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Fabricante" sheetId="3" r:id="rId3"/>
-    <sheet name="Categoria" sheetId="7" r:id="rId4"/>
+    <sheet name="ProductoPorFabricante" sheetId="8" r:id="rId4"/>
     <sheet name="Producto" sheetId="5" r:id="rId5"/>
+    <sheet name="Categoria" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -113,18 +114,9 @@
     <t>Cuidado corporal</t>
   </si>
   <si>
-    <t>Crema Facial Anti-edad</t>
-  </si>
-  <si>
-    <t>Loción Corporal Hidratante</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>Crema para masajes</t>
-  </si>
-  <si>
     <t>Productos</t>
   </si>
   <si>
@@ -144,6 +136,24 @@
   </si>
   <si>
     <t>objeto de dominio que contiene la informacion de la categoria a la que pertenecen los productos</t>
+  </si>
+  <si>
+    <t>ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que actúa como un puente entre el objeto Producto y el objeto Fabricante.</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Crema de Día Anti-edad</t>
+  </si>
+  <si>
+    <t>Dermalogica Daily Microfoliant</t>
+  </si>
+  <si>
+    <t>Daily Moisture Lotion</t>
   </si>
 </sst>
 </file>
@@ -219,7 +229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -273,12 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -296,7 +300,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -325,17 +336,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>448588</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67189</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19184</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C69875-C711-4B49-BECC-0F7E705A43E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405649B8-0AA8-C8DB-41C2-723AD0A282A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -352,7 +363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6544588" cy="3686689"/>
+          <a:ext cx="9163184" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J8" s="18"/>
+      <c r="J8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,15 +727,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -741,55 +752,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>23</v>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
+    <hyperlink ref="A5" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
     <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{F6E69E19-C906-4057-8552-4530EC5719C0}"/>
     <hyperlink ref="A2" location="Categoria!A1" display="categoria" xr:uid="{21B60CB4-94E8-44FA-9E5D-A8E3C8478B12}"/>
   </hyperlinks>
@@ -800,64 +825,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>B2</f>
-        <v>L'Oréal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">B3</f>
-        <v>Dermalogica</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Lubridem</v>
       </c>
     </row>
   </sheetData>
@@ -866,11 +875,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B513BC6-2C55-426F-9B1C-A193D980116F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>Producto!B2</f>
+        <v>Crema de Día Anti-edad</v>
+      </c>
+      <c r="C2" s="17" t="str">
+        <f>Fabricante!B2</f>
+        <v>L'Oréal</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>Producto!B3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>Fabricante!B3</f>
+        <v>Dermalogica</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>Producto!B4</f>
+        <v>Daily Moisture Lotion</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>Fabricante!B4</f>
+        <v>Lubridem</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Producto!B2" display="Loción Corporal Hidratante" xr:uid="{470563BE-F8EE-402E-A3C0-69A6FF0B7C19}"/>
+    <hyperlink ref="C2" location="Fabricante!B2" display="Fabricante!B2" xr:uid="{D7447487-CB1C-49EF-A5FE-10A850D9B10A}"/>
+    <hyperlink ref="C3:C4" location="Fabricante!B2" display="Fabricante!B2" xr:uid="{F008526C-72F1-43F4-AE46-D6422DF99836}"/>
+    <hyperlink ref="B3:B4" location="Producto!B2" display="Loción Corporal Hidratante" xr:uid="{D4377FC2-53D3-4D90-BEFA-AF36D7F1A9D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f>Categoria!C2</f>
+        <v>Cuidado corporal</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>B2</f>
+        <v>Crema de Día Anti-edad</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20">
+        <v>30000</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>Categoria!C3</f>
+        <v>Cuidado facial</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3</f>
+        <v>Dermalogica Daily Microfoliant</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="20">
+        <v>45000</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>Categoria!C4</f>
+        <v>Masajes</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Daily Moisture Lotion</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Categoria!B2" display="Categoria!B2" xr:uid="{6FE2D0E8-0974-41F1-80C8-A07A9AAB013A}"/>
+    <hyperlink ref="D3:D4" location="Categoria!B2" display="Categoria!B2" xr:uid="{E2FD34C9-FEF2-4760-8EE1-57FFB02F913B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4426172C-0972-46E3-82F0-32B5994B8FFE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +1095,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="str">
@@ -907,7 +1107,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="str">
@@ -926,108 +1126,6 @@
         <f t="shared" si="0"/>
         <v>Masajes</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>Categoria!C2</f>
-        <v>Cuidado corporal</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>Fabricante!C2</f>
-        <v>L'Oréal</v>
-      </c>
-      <c r="E2" s="12" t="str">
-        <f>B2&amp;"-"&amp;D2</f>
-        <v>Loción Corporal Hidratante-L'Oréal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="str">
-        <f>Categoria!C3</f>
-        <v>Cuidado facial</v>
-      </c>
-      <c r="D3" s="10" t="str">
-        <f>Fabricante!C3</f>
-        <v>Dermalogica</v>
-      </c>
-      <c r="E3" s="12" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;D3</f>
-        <v>Crema Facial Anti-edad-Dermalogica</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="str">
-        <f>Categoria!C4</f>
-        <v>Masajes</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f>Fabricante!C4</f>
-        <v>Lubridem</v>
-      </c>
-      <c r="E4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Crema para masajes-Lubridem</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Productos - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DADDBD-0F40-464B-8D89-0F72FC522DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{89DADDBD-0F40-464B-8D89-0F72FC522DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24CCA0D5-5234-46F5-A22B-CADCFD556B0E}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Objeto de dominio que actúa como un puente entre el objeto Producto y el objeto Fabricante.</t>
-  </si>
-  <si>
-    <t>Precio</t>
   </si>
   <si>
     <t>Crema de Día Anti-edad</t>
@@ -262,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,7 +304,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -879,7 +875,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,99 +963,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="20">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="17" t="str">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17" t="str">
         <f>Categoria!C2</f>
         <v>Cuidado corporal</v>
       </c>
-      <c r="E2" s="10" t="str">
+      <c r="D2" s="10" t="str">
         <f>B2</f>
         <v>Crema de Día Anti-edad</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="20">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="17" t="str">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17" t="str">
         <f>Categoria!C3</f>
         <v>Cuidado facial</v>
       </c>
-      <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3</f>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3</f>
         <v>Dermalogica Daily Microfoliant</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="20">
-        <v>45000</v>
-      </c>
-      <c r="D4" s="17" t="str">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17" t="str">
         <f>Categoria!C4</f>
         <v>Masajes</v>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="D4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Daily Moisture Lotion</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" location="Categoria!B2" display="Categoria!B2" xr:uid="{6FE2D0E8-0974-41F1-80C8-A07A9AAB013A}"/>
-    <hyperlink ref="D3:D4" location="Categoria!B2" display="Categoria!B2" xr:uid="{E2FD34C9-FEF2-4760-8EE1-57FFB02F913B}"/>
+    <hyperlink ref="C2" location="Categoria!B2" display="Categoria!B2" xr:uid="{6FE2D0E8-0974-41F1-80C8-A07A9AAB013A}"/>
+    <hyperlink ref="C3:C4" location="Categoria!B2" display="Categoria!B2" xr:uid="{E2FD34C9-FEF2-4760-8EE1-57FFB02F913B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
